--- a/MDT.xlsx
+++ b/MDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0B0A02-D8B4-42BC-A53A-04490ADBDE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D4A66-16A6-4E0B-BAE3-B1D28D28B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="105" windowWidth="20745" windowHeight="14490" activeTab="1" xr2:uid="{55A27E74-966C-4880-AD63-AC8256DC275C}"/>
+    <workbookView xWindow="28335" yWindow="795" windowWidth="23145" windowHeight="20370" activeTab="1" xr2:uid="{55A27E74-966C-4880-AD63-AC8256DC275C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CBFED576-CB1B-4590-941F-643FAC4D5602}</author>
+  </authors>
+  <commentList>
+    <comment ref="O16" authorId="0" shapeId="0" xr:uid="{CBFED576-CB1B-4590-941F-643FAC4D5602}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    351m FX impact</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Price</t>
   </si>
@@ -225,6 +243,9 @@
   </si>
   <si>
     <t>FY18</t>
+  </si>
+  <si>
+    <t>Q422</t>
   </si>
 </sst>
 </file>
@@ -232,9 +253,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -258,6 +279,12 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -302,8 +329,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -330,16 +357,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>103585</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -354,8 +381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658225" y="76200"/>
-          <a:ext cx="0" cy="6419850"/>
+          <a:off x="10638235" y="0"/>
+          <a:ext cx="0" cy="7979569"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -429,6 +456,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{FA83DC30-D746-4866-922B-C62441795129}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,12 +759,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O16" dT="2023-03-29T21:46:21.40" personId="{FA83DC30-D746-4866-922B-C62441795129}" id="{CBFED576-CB1B-4590-941F-643FAC4D5602}">
+    <text>351m FX impact</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB435FB1-3F17-4F35-BF1A-82D16AB8E026}">
   <dimension ref="L2:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="E1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -741,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>87.9</v>
+        <v>79.069999999999993</v>
       </c>
     </row>
     <row r="3" spans="12:14" x14ac:dyDescent="0.2">
@@ -749,10 +790,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
-        <v>1345</v>
+        <v>1330.423708</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="12:14" x14ac:dyDescent="0.2">
@@ -761,7 +802,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M2*M3</f>
-        <v>118225.50000000001</v>
+        <v>105196.60259155999</v>
       </c>
     </row>
     <row r="5" spans="12:14" x14ac:dyDescent="0.2">
@@ -794,7 +835,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>131766.5</v>
+        <v>118737.60259155999</v>
       </c>
     </row>
   </sheetData>
@@ -803,14 +844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF6896-BB08-437B-B7AB-C645F67C99B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF6896-BB08-437B-B7AB-C645F67C99B8}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -838,13 +879,29 @@
       <c r="J2" s="10">
         <v>44316</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="10">
+        <v>44406</v>
+      </c>
+      <c r="L2" s="10">
+        <v>44499</v>
+      </c>
       <c r="M2" s="10">
         <v>44589</v>
       </c>
       <c r="N2" s="10">
         <v>44680</v>
+      </c>
+      <c r="O2" s="9">
+        <v>44771</v>
+      </c>
+      <c r="P2" s="9">
+        <v>44864</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>44953</v>
+      </c>
+      <c r="R2" s="9">
+        <v>45045</v>
       </c>
       <c r="V2" s="9">
         <v>43581</v>
@@ -997,17 +1054,27 @@
       <c r="J4" s="4">
         <v>1192</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="4">
+        <v>1123</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1067</v>
+      </c>
       <c r="M4" s="4">
         <v>1102</v>
       </c>
       <c r="N4" s="4">
         <v>1165</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="4">
+        <v>1043</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1081</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1128</v>
+      </c>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1026,17 +1093,27 @@
       <c r="J5" s="4">
         <v>654</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="K5" s="4">
+        <v>641</v>
+      </c>
+      <c r="L5" s="4">
+        <v>634</v>
+      </c>
       <c r="M5" s="4">
         <v>633</v>
       </c>
       <c r="N5" s="4">
         <v>684</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="O5" s="4">
+        <v>667</v>
+      </c>
+      <c r="P5" s="4">
+        <v>686</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>699</v>
+      </c>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1055,17 +1132,27 @@
       <c r="J6" s="4">
         <v>449</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="K6" s="4">
+        <v>440</v>
+      </c>
+      <c r="L6" s="4">
+        <v>435</v>
+      </c>
       <c r="M6" s="4">
         <v>409</v>
       </c>
       <c r="N6" s="4">
         <v>451</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="4">
+        <v>405</v>
+      </c>
+      <c r="P6" s="4">
+        <v>419</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>420</v>
+      </c>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1102,17 +1189,27 @@
       <c r="J8" s="4">
         <v>647</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="4">
+        <v>572</v>
+      </c>
+      <c r="L8" s="4">
+        <v>585</v>
+      </c>
       <c r="M8" s="4">
         <v>584</v>
       </c>
       <c r="N8" s="4">
         <v>597</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="4">
+        <v>541</v>
+      </c>
+      <c r="P8" s="4">
+        <v>556</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>570</v>
+      </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1149,17 +1246,27 @@
       <c r="J10" s="4">
         <v>796</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="4">
+        <v>768</v>
+      </c>
+      <c r="L10" s="4">
+        <v>802</v>
+      </c>
       <c r="M10" s="4">
         <v>771</v>
       </c>
       <c r="N10" s="4">
         <v>740</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="4">
+        <v>664</v>
+      </c>
+      <c r="P10" s="4">
+        <v>671</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>712</v>
+      </c>
       <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1178,17 +1285,27 @@
       <c r="J11" s="4">
         <v>1542</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="4">
+        <v>1554</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1497</v>
+      </c>
       <c r="M11" s="4">
         <v>1519</v>
       </c>
       <c r="N11" s="4">
         <v>1491</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="4">
+        <v>1338</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1398</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1425</v>
+      </c>
       <c r="R11" s="4"/>
     </row>
     <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1225,17 +1342,27 @@
       <c r="J13" s="4">
         <v>624</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="4">
+        <v>620</v>
+      </c>
+      <c r="L13" s="4">
+        <v>606</v>
+      </c>
       <c r="M13" s="4">
         <v>603</v>
       </c>
       <c r="N13" s="4">
         <v>631</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="O13" s="4">
+        <v>579</v>
+      </c>
+      <c r="P13" s="4">
+        <v>584</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>581</v>
+      </c>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1254,17 +1381,27 @@
       <c r="J14" s="4">
         <v>744</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4">
+        <v>787</v>
+      </c>
+      <c r="L14" s="4">
+        <v>750</v>
+      </c>
       <c r="M14" s="4">
         <v>740</v>
       </c>
       <c r="N14" s="4">
         <v>778</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="4">
+        <v>741</v>
+      </c>
+      <c r="P14" s="4">
+        <v>757</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>760</v>
+      </c>
       <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1283,17 +1420,27 @@
       <c r="J15" s="4">
         <v>1539</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4">
+        <v>1483</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1471</v>
+      </c>
       <c r="M15" s="4">
         <v>1402</v>
       </c>
       <c r="N15" s="4">
         <v>1552</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="O15" s="4">
+        <v>1393</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1431</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1431</v>
+      </c>
       <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -1314,8 +1461,14 @@
         <f>SUM(J4:J15)</f>
         <v>8187</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="6">
+        <f>SUM(K4:K15)</f>
+        <v>7988</v>
+      </c>
+      <c r="L16" s="6">
+        <f>SUM(L4:L15)</f>
+        <v>7847</v>
+      </c>
       <c r="M16" s="6">
         <f>SUM(M4:M15)</f>
         <v>7763</v>
@@ -1323,6 +1476,17 @@
       <c r="N16" s="6">
         <f>SUM(N4:N15)</f>
         <v>8089</v>
+      </c>
+      <c r="O16" s="6">
+        <f>SUM(O4:O15)</f>
+        <v>7371</v>
+      </c>
+      <c r="P16" s="6">
+        <f>SUM(P4:P15)</f>
+        <v>7583</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>7727</v>
       </c>
       <c r="V16" s="5">
         <v>30557</v>
@@ -1353,13 +1517,26 @@
       <c r="J17" s="4">
         <v>2652</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="K17" s="4">
+        <v>2491</v>
+      </c>
+      <c r="L17" s="4">
+        <v>2497</v>
+      </c>
       <c r="M17" s="4">
         <v>2459</v>
       </c>
       <c r="N17" s="4">
         <v>2544</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2467</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2535</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2689</v>
       </c>
       <c r="V17" s="3">
         <v>9155</v>
@@ -1394,11 +1571,11 @@
       </c>
       <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5497</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5350</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="2"/>
@@ -1407,6 +1584,18 @@
       <c r="N18" s="4">
         <f>+N16-N17</f>
         <v>5545</v>
+      </c>
+      <c r="O18" s="3">
+        <f>O16-O17</f>
+        <v>4904</v>
+      </c>
+      <c r="P18" s="3">
+        <f>P16-P17</f>
+        <v>5048</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>Q16-Q17</f>
+        <v>5038</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ref="V18" si="3">+V16-V17</f>
@@ -1441,13 +1630,26 @@
       <c r="J19" s="4">
         <v>2594</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="4">
+        <v>2547</v>
+      </c>
+      <c r="L19" s="4">
+        <v>2615</v>
+      </c>
       <c r="M19" s="4">
         <v>2561</v>
       </c>
       <c r="N19" s="4">
         <v>2569</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2518</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2617</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2615</v>
       </c>
       <c r="V19" s="3">
         <v>10418</v>
@@ -1478,13 +1680,26 @@
       <c r="J20" s="4">
         <v>632</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="4">
+        <v>436</v>
+      </c>
+      <c r="L20" s="4">
+        <v>431</v>
+      </c>
       <c r="M20" s="4">
         <v>668</v>
       </c>
       <c r="N20" s="4">
         <v>652</v>
+      </c>
+      <c r="O20" s="3">
+        <v>678</v>
+      </c>
+      <c r="P20" s="3">
+        <v>676</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>688</v>
       </c>
       <c r="V20" s="3">
         <v>2330</v>
@@ -1519,11 +1734,11 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2983</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3046</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="6"/>
@@ -1532,6 +1747,18 @@
       <c r="N21" s="4">
         <f>+N19+N20</f>
         <v>3221</v>
+      </c>
+      <c r="O21" s="4">
+        <f>+O19+O20</f>
+        <v>3196</v>
+      </c>
+      <c r="P21" s="4">
+        <f>+P19+P20</f>
+        <v>3293</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>Q19+Q20</f>
+        <v>3303</v>
       </c>
       <c r="V21" s="3">
         <f t="shared" ref="V21" si="7">+V19+V20</f>
@@ -1569,12 +1796,12 @@
         <v>2309</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>+K18-K21</f>
+        <v>2514</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="11"/>
@@ -1583,6 +1810,18 @@
       <c r="N22" s="4">
         <f>+N18-N21</f>
         <v>2324</v>
+      </c>
+      <c r="O22" s="4">
+        <f>+O18-O21</f>
+        <v>1708</v>
+      </c>
+      <c r="P22" s="4">
+        <f>+P18-P21</f>
+        <v>1755</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>Q18-Q21</f>
+        <v>1735</v>
       </c>
       <c r="V22" s="3">
         <f t="shared" ref="V22" si="12">+V18-V21</f>
@@ -1619,8 +1858,14 @@
         <f>-198+102-142</f>
         <v>-238</v>
       </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="4">
+        <f>-137+111</f>
+        <v>-26</v>
+      </c>
+      <c r="L23" s="4">
+        <f>66-136</f>
+        <v>-70</v>
+      </c>
       <c r="M23" s="4">
         <f>63+67-137</f>
         <v>-7</v>
@@ -1628,6 +1873,18 @@
       <c r="N23" s="4">
         <f>-143+74-143</f>
         <v>-212</v>
+      </c>
+      <c r="O23" s="3">
+        <f>83-164-35</f>
+        <v>-116</v>
+      </c>
+      <c r="P23" s="3">
+        <f>109-118</f>
+        <v>-9</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>-167+149</f>
+        <v>-18</v>
       </c>
       <c r="V23" s="3">
         <f>-258+373-1444</f>
@@ -1665,12 +1922,12 @@
         <v>2071</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>+K22+K23</f>
+        <v>2488</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2234</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="16"/>
@@ -1679,6 +1936,18 @@
       <c r="N24" s="4">
         <f>+N22+N23</f>
         <v>2112</v>
+      </c>
+      <c r="O24" s="4">
+        <f>+O22+O23</f>
+        <v>1592</v>
+      </c>
+      <c r="P24" s="4">
+        <f>+P22+P23</f>
+        <v>1746</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>Q22+Q23</f>
+        <v>1717</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" ref="V24" si="17">+V22+V23</f>
@@ -1714,13 +1983,26 @@
       <c r="J25" s="4">
         <v>206</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="K25" s="4">
+        <v>64</v>
+      </c>
+      <c r="L25" s="4">
+        <v>176</v>
+      </c>
       <c r="M25" s="4">
         <v>110</v>
       </c>
       <c r="N25" s="4">
         <v>116</v>
+      </c>
+      <c r="O25" s="3">
+        <v>112</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>146</v>
       </c>
       <c r="V25" s="3">
         <v>547</v>
@@ -1758,11 +2040,11 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2424</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2058</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="21"/>
@@ -1772,6 +2054,18 @@
         <f>+N24-N25</f>
         <v>1996</v>
       </c>
+      <c r="O26" s="4">
+        <f>+O24-O25</f>
+        <v>1480</v>
+      </c>
+      <c r="P26" s="4">
+        <f>+P24-P25</f>
+        <v>1746</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>Q24-Q25</f>
+        <v>1571</v>
+      </c>
       <c r="V26" s="3">
         <f t="shared" ref="V26" si="22">+V24-V25</f>
         <v>6778</v>
@@ -1801,13 +2095,13 @@
         <f t="shared" ref="J27:M27" si="26">+J26/J28</f>
         <v>1.3729387514723204</v>
       </c>
-      <c r="K27" s="8" t="e">
+      <c r="K27" s="8">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="8" t="e">
+        <v>1.7870834562076083</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
+        <v>1.5184829926953443</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="26"/>
@@ -1816,6 +2110,18 @@
       <c r="N27" s="8">
         <f>+N26/N28</f>
         <v>1.4841252137705405</v>
+      </c>
+      <c r="O27" s="8">
+        <f>+O26/O28</f>
+        <v>1.1090295991007868</v>
+      </c>
+      <c r="P27" s="8">
+        <f>+P26/P28</f>
+        <v>1.3108108108108107</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>Q26/Q28</f>
+        <v>1.1794294294294294</v>
       </c>
       <c r="V27" s="1">
         <f t="shared" ref="V27" si="27">V26/V28</f>
@@ -1850,13 +2156,26 @@
       <c r="J28" s="4">
         <v>1358.4</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="K28" s="4">
+        <v>1356.4</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1355.3</v>
+      </c>
       <c r="M28" s="4">
         <v>1350.3</v>
       </c>
       <c r="N28" s="4">
         <v>1344.9</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1334.5</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1332</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1332</v>
       </c>
       <c r="V28" s="3">
         <v>1357.5</v>
@@ -1883,12 +2202,28 @@
         <f>N16/J16-1</f>
         <v>-1.1970196653230736E-2</v>
       </c>
+      <c r="O33" s="7">
+        <f>O16/K16-1</f>
+        <v>-7.7240861291937857E-2</v>
+      </c>
+      <c r="P33" s="7">
+        <f>P16/L16-1</f>
+        <v>-3.3643430610424407E-2</v>
+      </c>
+      <c r="Q33" s="7">
+        <f>Q16/M16-1</f>
+        <v>-4.6373824552363718E-3</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" ref="R33" si="31">R16/N16-1</f>
+        <v>-1</v>
+      </c>
       <c r="W33" s="11">
-        <f t="shared" ref="W33:Y33" si="31">+W16/V16-1</f>
+        <f t="shared" ref="W33:X33" si="32">+W16/V16-1</f>
         <v>-5.380109303923819E-2</v>
       </c>
       <c r="X33" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>4.1642167882959269E-2</v>
       </c>
       <c r="Y33" s="11">
@@ -1901,43 +2236,59 @@
         <v>57</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34:M34" si="32">+I18/I16</f>
+        <f t="shared" ref="I34:M34" si="33">+I18/I16</f>
         <v>0.66285052739902239</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.67607182117991937</v>
       </c>
-      <c r="K34" s="7" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="7" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
+      <c r="K34" s="7">
+        <f t="shared" si="33"/>
+        <v>0.68815723585378064</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="33"/>
+        <v>0.6817892188097362</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.68324101507149293</v>
       </c>
       <c r="N34" s="7">
         <f>+N18/N16</f>
         <v>0.68549882556558284</v>
       </c>
+      <c r="O34" s="7">
+        <f>+O18/O16</f>
+        <v>0.66530999864333196</v>
+      </c>
+      <c r="P34" s="7">
+        <f>+P18/P16</f>
+        <v>0.66569959119082156</v>
+      </c>
+      <c r="Q34" s="7">
+        <f>+Q18/Q16</f>
+        <v>0.65199948233467064</v>
+      </c>
+      <c r="R34" s="7" t="e">
+        <f t="shared" ref="R34" si="34">+R18/R16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V34" s="7">
-        <f t="shared" ref="V34:Y34" si="33">+V18/V16</f>
+        <f t="shared" ref="V34:Y34" si="35">+V18/V16</f>
         <v>0.70039598128088487</v>
       </c>
       <c r="W34" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.67405665271677095</v>
       </c>
       <c r="X34" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.6519241624331773</v>
       </c>
       <c r="Y34" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.67982705295714196</v>
       </c>
     </row>
@@ -1998,19 +2349,19 @@
         <v>59</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" ref="U39" si="34">+U37-U38</f>
+        <f t="shared" ref="U39" si="36">+U37-U38</f>
         <v>3616</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" ref="V39" si="35">+V37-V38</f>
+        <f t="shared" ref="V39" si="37">+V37-V38</f>
         <v>5873</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" ref="W39:X39" si="36">+W37-W38</f>
+        <f t="shared" ref="W39:X39" si="38">+W37-W38</f>
         <v>6021</v>
       </c>
       <c r="X39" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>4885</v>
       </c>
       <c r="Y39" s="3">
@@ -2025,5 +2376,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>